--- a/Extracted_Resume_Data.xlsx
+++ b/Extracted_Resume_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">N/A 
+          <t xml:space="preserve">Arindam Paul 
 </t>
         </is>
       </c>
@@ -543,20 +543,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">WBCHSE 
+          <t xml:space="preserve">wbchse 
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">83.00 %  
+          <t xml:space="preserve">83.00 % 
 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wbutepa  
-,Midnapore college (Autonomous)  
+          <t xml:space="preserve">Midnapore college (Autonomous), Vidyasagar University 
 </t>
         </is>
       </c>
@@ -568,7 +567,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ramakrishna Mission Vidyamandira 
+          <t xml:space="preserve">Ramakrishna Mission Vidyamandira, Calcutta university  
 </t>
         </is>
       </c>
@@ -599,6 +598,833 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>arindam.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">daksh yadav 
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-8814850067 
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yadavdaksh600@gmail.com 
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rao pahlad singh public school, rewari 
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.8/10 
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rao pahlad singh public school, rewari  
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94.2% 
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sri Venkateswara College, University of Delhi 
+</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.473/10  
+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indian Institute of Technology Palakkad 
+</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.99/10 
+</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(2023-24) • Google Advanced Data Analytics Specialization
+(2023) • Goldman Sachs Excel Skills for Business Job Simulation 
+</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Derivative Markets Analyst, Finlatics 
+</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Daksh_Yadav resume.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jyant 
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91 9053642807 
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jyant.2001@gmail.com 
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana board of school education 
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.2% 
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana Board of School Education 
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90.2% 
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kurukshetra University 
+</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78.3% 
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IIT Roorkee 
+</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IIT Roorkee: 8.45/10 
+Kurukshetra University: 7.54/10 
+</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data Scientist 
+</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Jyant Resume-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irene Subba 
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8436272523 
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">irene_s@amsc.iitr.ac.in 
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Bosco School 
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80.00 % 
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Bosco School 
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78.50 % 
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sikkim Manipal Institute of Technology 
+</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.450  
+</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indian Institute of Technology, Roorkee  
+</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.100 
+</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on the provided information, a suitable job profile could be a Data Analyst or a Machine Learning Engineer. 
+</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Resume.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sourav Saha 
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91-6289428494 
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">souravsaha721@gmail.com 
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w.b.b.s.e. 
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88.00/100.00 
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w.b.c.h.s.e 
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76.50/100.0 
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gurudas College, University of Calcutta 
+</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53.36/100.0 
+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IIT Roorkee and IIT Guwahati  
+</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M.Tech. CGPA: 7.40/10.0 
+M.Sc. CGPA: 5.99/10.0 
+</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Google Advanced Data Analytics Specialization. 
+</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Resume_of_Sourav_Saha.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rishita goel 
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8059157446 
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rishita_g@amsc.iitr.ac.in 
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kali ram dav public school, safidon (cbse) 
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.000  
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CBSE 
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80.40 % 
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panjab University, Chandigarh 
+</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.300 
+</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IIT Ropar 
+</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.040 
+</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on the provided information, a relevant job profile could be a  Data Analyst or a Machine Learning Engineer.  
+</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>rishita.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shivam Kumar 
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91-7037162459 
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shivamkushwaha636@gmail.com 
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.66 
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C S J M University, Kanpur 
+</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.66  
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamia Millia Islamia, New Delhi  
+</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7.45 
+</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M.Tech - Applied Mathematics and Scientific Computing, CGPA: 7.45  
+M.Sc. - Applied Mathematics, Percentage: 84.08 
+B.Sc. - Physics, Mathematics, Percentage: 55.66 
+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subject Matter Expert | CHEGG INDIA PVT. LTD. 
+</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>shivam1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shivam Kumar 
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7037162459 
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">shivam_k@amsc.iitr.ac.in 
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">smt s s s h s sahayal auraiya 
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78.83 %  
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S R B M I COLL MEERPUR DHUPKARI 
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85.60 %  
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chhatrapati Shahuji Maharaj University Kanpur 
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55.66 % 
+</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamia Millia Islamia 
+</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84.08 %  
+</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subject matter expert | Chegg India Private Limited 
+</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>shivam2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sourav Saha 
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6289428494 
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sourav_s@amsc.iitr.ac.in 
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w.b.b.s.e.  
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88.00 % 
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w.b.b.s.e.  
+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76.50 %  
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gurudas College, University of Calcutta 
+</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53.56 %  
+</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indian Institute of Technology, Guwahati 
+</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.990 
+</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">End-to-end medical chatbot development using llama2 and langchain  | self project 
+predictive modeling of personality traits using nlp and mbti dataset  | iit roorkee 
+audio-based music genre classification using dl techniques  | iit roorkee 
+iitg placement portal  | web development 
+</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>sourav saha2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jyant 
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+91 9053642807 
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">jyant.2001@gmail.com 
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana Board of School Education 
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.2% 
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana Board of School Education  
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90.2% 
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kurukshetra University 
+</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78.3% 
+</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IIT Roorkee 
+</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8.45/10 
+</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Google Advanced Data Analytics Specialization, Machine learning certificate from kaggle 
+</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N/A 
+</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data Scientist or AI/ML Engineer 
+</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>temp.pdf</t>
         </is>
       </c>
     </row>
